--- a/Hall-Effekt/Hall-Effekt.xlsx
+++ b/Hall-Effekt/Hall-Effekt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\GitHub\F-Praktikum-\Hall-Effekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11A49D59-520F-46CE-99C6-078C4DC6BE2A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FA64C3-D65B-4285-960F-B41CEF084502}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{32BD4F04-B8A9-49AF-B99F-3A48C73325BF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>U(T1) in mV</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>T in K</t>
+  </si>
+  <si>
+    <t>1/T in K</t>
+  </si>
+  <si>
+    <t>rho</t>
   </si>
 </sst>
 </file>
@@ -421,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284E11AA-7E4C-41BD-B4F3-E90581CA608F}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,6 +495,12 @@
       <c r="I3" t="s">
         <v>13</v>
       </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -521,6 +533,10 @@
         <f>0.565*10^(-3)*H4/$K$1</f>
         <v>-3.3447999999999999E-2</v>
       </c>
+      <c r="J4">
+        <f>1/(A4+273.15)</f>
+        <v>3.3738191632928477E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -545,12 +561,16 @@
         <v>1.01</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H31" si="0">E5-F5</f>
+        <f t="shared" ref="H5:H30" si="0">E5-F5</f>
         <v>-40.440000000000005</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I31" si="1">0.565*10^(-3)*H5/$K$1</f>
+        <f t="shared" ref="I5:I30" si="1">0.565*10^(-3)*H5/$K$1</f>
         <v>-3.2640857142857145E-2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J30" si="2">1/(A5+273.15)</f>
+        <v>3.3540164346805303E-3</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -583,6 +603,10 @@
         <f t="shared" si="1"/>
         <v>-3.0227500000000004E-2</v>
       </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>3.298697014679202E-3</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -614,644 +638,793 @@
         <f t="shared" si="1"/>
         <v>-2.6668000000000001E-2</v>
       </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>3.2451728054518907E-3</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>1.5</v>
+      </c>
+      <c r="C8">
+        <v>76.02</v>
+      </c>
+      <c r="D8">
+        <v>33.61</v>
+      </c>
+      <c r="E8">
+        <v>28.53</v>
+      </c>
+      <c r="F8">
+        <v>59.54</v>
+      </c>
+      <c r="G8">
+        <v>1.5</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
+        <v>-31.009999999999998</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>-2.50295E-2</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>3.2138839787883662E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9">
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>3.6609921288669233E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-180</v>
+      </c>
+      <c r="B10">
+        <v>5.3</v>
+      </c>
+      <c r="C10">
+        <v>16.07</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>-11.95</v>
+      </c>
+      <c r="F10">
+        <v>38.28</v>
+      </c>
+      <c r="G10">
+        <v>5.15</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>-50.230000000000004</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>-4.0542785714285719E-2</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>1.0735373054213636E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-170</v>
+      </c>
+      <c r="B11">
+        <v>5.12</v>
+      </c>
+      <c r="C11">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D11">
+        <v>6.41</v>
+      </c>
+      <c r="E11">
+        <v>-10.15</v>
+      </c>
+      <c r="F11">
+        <v>37.5</v>
+      </c>
+      <c r="G11">
+        <v>4.95</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>-47.65</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>-3.8460357142857143E-2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>9.6946194861851701E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-160</v>
+      </c>
+      <c r="B12">
+        <v>4.91</v>
+      </c>
+      <c r="C12">
+        <v>18.13</v>
+      </c>
+      <c r="D12">
+        <v>6.96</v>
+      </c>
+      <c r="E12">
+        <v>-8.65</v>
+      </c>
+      <c r="F12">
+        <v>38.33</v>
+      </c>
+      <c r="G12">
+        <v>4.78</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>-46.98</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>-3.7919571428571427E-2</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>8.8378258948298739E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-150</v>
+      </c>
+      <c r="B13">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="C13">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="D13">
+        <v>7.9</v>
+      </c>
+      <c r="E13">
+        <v>-7.3</v>
+      </c>
+      <c r="F13">
+        <v>40.130000000000003</v>
+      </c>
+      <c r="G13">
+        <v>4.55</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>-47.43</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>-3.8282785714285714E-2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>8.1201786439301683E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-140</v>
+      </c>
+      <c r="B14">
+        <v>4.46</v>
+      </c>
+      <c r="C14">
+        <v>22.95</v>
+      </c>
+      <c r="D14">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="E14">
+        <v>-5.81</v>
+      </c>
+      <c r="F14">
+        <v>41.96</v>
+      </c>
+      <c r="G14">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>-47.77</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>-3.8557214285714292E-2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>7.5103266992114174E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-130</v>
+      </c>
+      <c r="B15">
+        <v>4.21</v>
+      </c>
+      <c r="C15">
+        <v>25.84</v>
+      </c>
+      <c r="D15">
+        <v>10.15</v>
+      </c>
+      <c r="E15">
+        <v>-4.2300000000000004</v>
+      </c>
+      <c r="F15">
+        <v>44.39</v>
+      </c>
+      <c r="G15">
+        <v>4.07</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>-48.620000000000005</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>-3.9243285714285717E-2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>6.9856793573175001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-120</v>
+      </c>
+      <c r="B16">
+        <v>3.95</v>
+      </c>
+      <c r="C16">
+        <v>29.41</v>
+      </c>
+      <c r="D16">
+        <v>11.55</v>
+      </c>
+      <c r="E16">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="F16">
+        <v>47.21</v>
+      </c>
+      <c r="G16">
+        <v>3.82</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>-49.7</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>-4.0115000000000005E-2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>6.5295461965393419E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-110</v>
+      </c>
+      <c r="B17">
+        <v>3.68</v>
+      </c>
+      <c r="C17">
+        <v>33.04</v>
+      </c>
+      <c r="D17">
+        <v>13.03</v>
+      </c>
+      <c r="E17">
+        <v>-0.65</v>
+      </c>
+      <c r="F17">
+        <v>49.73</v>
+      </c>
+      <c r="G17">
+        <v>3.58</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>-50.379999999999995</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>-4.066385714285714E-2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>6.1293288384921861E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-100</v>
+      </c>
+      <c r="B18">
+        <v>3.4</v>
+      </c>
+      <c r="C18">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="D18">
+        <v>14.73</v>
+      </c>
+      <c r="E18">
+        <v>1.25</v>
+      </c>
+      <c r="F18">
+        <v>53.66</v>
+      </c>
+      <c r="G18">
+        <v>3.27</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>-52.41</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>-4.2302357142857142E-2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>5.775339301183945E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-90</v>
+      </c>
+      <c r="B19">
+        <v>3.11</v>
+      </c>
+      <c r="C19">
+        <v>41.67</v>
+      </c>
+      <c r="D19">
+        <v>16.55</v>
+      </c>
+      <c r="E19">
+        <v>3.35</v>
+      </c>
+      <c r="F19">
+        <v>56.5</v>
+      </c>
+      <c r="G19">
+        <v>2.99</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>-53.15</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>-4.2899642857142858E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>5.4600054600054604E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-80</v>
+      </c>
+      <c r="B20">
+        <v>2.81</v>
+      </c>
+      <c r="C20">
+        <v>47.45</v>
+      </c>
+      <c r="D20">
+        <v>18.75</v>
+      </c>
+      <c r="E20">
+        <v>5.76</v>
+      </c>
+      <c r="F20">
+        <v>61.01</v>
+      </c>
+      <c r="G20">
+        <v>2.71</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>-55.25</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>-4.4594642857142854E-2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>5.1773233238415744E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-70</v>
+      </c>
+      <c r="B21">
+        <v>2.5</v>
+      </c>
+      <c r="C21">
+        <v>51.54</v>
+      </c>
+      <c r="D21">
+        <v>20.61</v>
+      </c>
+      <c r="E21">
+        <v>8.15</v>
+      </c>
+      <c r="F21">
+        <v>63.92</v>
+      </c>
+      <c r="G21">
+        <v>2.4</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>-55.77</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>-4.5014357142857141E-2</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>4.9224710804824023E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-60</v>
+      </c>
+      <c r="B22">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="C22">
+        <v>57.53</v>
+      </c>
+      <c r="D22">
+        <v>22.71</v>
+      </c>
+      <c r="E22">
+        <v>10.86</v>
+      </c>
+      <c r="F22">
+        <v>67.38</v>
+      </c>
+      <c r="G22">
+        <v>2.09</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>-56.519999999999996</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>-4.5619714285714284E-2</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>4.6915317851278443E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-50</v>
+      </c>
+      <c r="B23">
+        <v>1.85</v>
+      </c>
+      <c r="C23">
+        <v>61.35</v>
+      </c>
+      <c r="D23">
+        <v>24.67</v>
+      </c>
+      <c r="E23">
+        <v>13.43</v>
+      </c>
+      <c r="F23">
+        <v>70.08</v>
+      </c>
+      <c r="G23">
+        <v>1.78</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>-56.65</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>-4.5724642857142853E-2</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>4.4812906116961692E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-40</v>
+      </c>
+      <c r="B24">
         <v>1.5</v>
       </c>
-      <c r="C9">
-        <v>76.02</v>
-      </c>
-      <c r="D9">
-        <v>33.61</v>
-      </c>
-      <c r="E9">
-        <v>28.53</v>
-      </c>
-      <c r="F9">
-        <v>59.54</v>
-      </c>
-      <c r="G9">
-        <v>1.5</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>-31.009999999999998</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
-        <v>-2.50295E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H10">
-        <f t="shared" si="0"/>
+      <c r="C24">
+        <v>67.67</v>
+      </c>
+      <c r="D24">
+        <v>26.87</v>
+      </c>
+      <c r="E24">
+        <v>16.11</v>
+      </c>
+      <c r="F24">
+        <v>72.89</v>
+      </c>
+      <c r="G24">
+        <v>1.43</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>-56.78</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>-4.5829571428571428E-2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>4.2890842805061126E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-30</v>
+      </c>
+      <c r="B25">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C25">
+        <v>70.66</v>
+      </c>
+      <c r="D25">
+        <v>29.36</v>
+      </c>
+      <c r="E25">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="F25">
+        <v>75.58</v>
+      </c>
+      <c r="G25">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>-56.84</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>-4.5878000000000002E-2</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>4.1126876413736376E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-20</v>
+      </c>
+      <c r="B26">
+        <v>0.77</v>
+      </c>
+      <c r="C26">
+        <v>76.56</v>
+      </c>
+      <c r="D26">
+        <v>31.53</v>
+      </c>
+      <c r="E26">
+        <v>20.74</v>
+      </c>
+      <c r="F26">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="G26">
+        <v>0.71</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>-55.58</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>-4.4860999999999998E-2</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>3.9502271380604387E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>-10</v>
+      </c>
+      <c r="B27">
+        <v>0.39</v>
+      </c>
+      <c r="C27">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="D27">
+        <v>33.28</v>
+      </c>
+      <c r="E27">
+        <v>22.24</v>
+      </c>
+      <c r="F27">
+        <v>75.58</v>
+      </c>
+      <c r="G27">
+        <v>0.35</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>-53.34</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>-4.3053000000000001E-2</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>3.800114003420103E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>0</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
+      <c r="B28">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>5.3</v>
-      </c>
-      <c r="C11">
-        <v>16.07</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>-11.95</v>
-      </c>
-      <c r="F11">
-        <v>38.28</v>
-      </c>
-      <c r="G11">
-        <v>5.15</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>-50.230000000000004</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>-4.0542785714285719E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>5.12</v>
-      </c>
-      <c r="C12">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="D12">
-        <v>6.41</v>
-      </c>
-      <c r="E12">
-        <v>-10.15</v>
-      </c>
-      <c r="F12">
-        <v>37.5</v>
-      </c>
-      <c r="G12">
-        <v>4.95</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>-47.65</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>-3.8460357142857143E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>4.91</v>
-      </c>
-      <c r="C13">
-        <v>18.13</v>
-      </c>
-      <c r="D13">
-        <v>6.96</v>
-      </c>
-      <c r="E13">
-        <v>-8.65</v>
-      </c>
-      <c r="F13">
-        <v>38.33</v>
-      </c>
-      <c r="G13">
-        <v>4.78</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>-46.98</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
-        <v>-3.7919571428571427E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="C14">
-        <v>20.350000000000001</v>
-      </c>
-      <c r="D14">
-        <v>7.9</v>
-      </c>
-      <c r="E14">
-        <v>-7.3</v>
-      </c>
-      <c r="F14">
-        <v>40.130000000000003</v>
-      </c>
-      <c r="G14">
-        <v>4.55</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>-47.43</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>-3.8282785714285714E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>4.46</v>
-      </c>
-      <c r="C15">
-        <v>22.95</v>
-      </c>
-      <c r="D15">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="E15">
-        <v>-5.81</v>
-      </c>
-      <c r="F15">
-        <v>41.96</v>
-      </c>
-      <c r="G15">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>-47.77</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>-3.8557214285714292E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>4.21</v>
-      </c>
-      <c r="C16">
-        <v>25.84</v>
-      </c>
-      <c r="D16">
-        <v>10.15</v>
-      </c>
-      <c r="E16">
-        <v>-4.2300000000000004</v>
-      </c>
-      <c r="F16">
-        <v>44.39</v>
-      </c>
-      <c r="G16">
-        <v>4.07</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>-48.620000000000005</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
-        <v>-3.9243285714285717E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>3.95</v>
-      </c>
-      <c r="C17">
-        <v>29.41</v>
-      </c>
-      <c r="D17">
-        <v>11.55</v>
-      </c>
-      <c r="E17">
-        <v>-2.4900000000000002</v>
-      </c>
-      <c r="F17">
-        <v>47.21</v>
-      </c>
-      <c r="G17">
-        <v>3.82</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>-49.7</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
-        <v>-4.0115000000000005E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>3.68</v>
-      </c>
-      <c r="C18">
-        <v>33.04</v>
-      </c>
-      <c r="D18">
-        <v>13.03</v>
-      </c>
-      <c r="E18">
-        <v>-0.65</v>
-      </c>
-      <c r="F18">
-        <v>49.73</v>
-      </c>
-      <c r="G18">
-        <v>3.58</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
-        <v>-50.379999999999995</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
-        <v>-4.066385714285714E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>3.4</v>
-      </c>
-      <c r="C19">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="D19">
-        <v>14.73</v>
-      </c>
-      <c r="E19">
-        <v>1.25</v>
-      </c>
-      <c r="F19">
-        <v>53.66</v>
-      </c>
-      <c r="G19">
-        <v>3.27</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
-        <v>-52.41</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="1"/>
-        <v>-4.2302357142857142E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>3.11</v>
-      </c>
-      <c r="C20">
-        <v>41.67</v>
-      </c>
-      <c r="D20">
-        <v>16.55</v>
-      </c>
-      <c r="E20">
-        <v>3.35</v>
-      </c>
-      <c r="F20">
-        <v>56.5</v>
-      </c>
-      <c r="G20">
-        <v>2.99</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
-        <v>-53.15</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="1"/>
-        <v>-4.2899642857142858E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>2.81</v>
-      </c>
-      <c r="C21">
-        <v>47.45</v>
-      </c>
-      <c r="D21">
-        <v>18.75</v>
-      </c>
-      <c r="E21">
-        <v>5.76</v>
-      </c>
-      <c r="F21">
-        <v>61.01</v>
-      </c>
-      <c r="G21">
-        <v>2.71</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
-        <v>-55.25</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="1"/>
-        <v>-4.4594642857142854E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>2.5</v>
-      </c>
-      <c r="C22">
-        <v>51.54</v>
-      </c>
-      <c r="D22">
-        <v>20.61</v>
-      </c>
-      <c r="E22">
-        <v>8.15</v>
-      </c>
-      <c r="F22">
-        <v>63.92</v>
-      </c>
-      <c r="G22">
-        <v>2.4</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="0"/>
-        <v>-55.77</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="1"/>
-        <v>-4.5014357142857141E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="C23">
-        <v>57.53</v>
-      </c>
-      <c r="D23">
-        <v>22.71</v>
-      </c>
-      <c r="E23">
-        <v>10.86</v>
-      </c>
-      <c r="F23">
-        <v>67.38</v>
-      </c>
-      <c r="G23">
-        <v>2.09</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="0"/>
-        <v>-56.519999999999996</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="1"/>
-        <v>-4.5619714285714284E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>1.85</v>
-      </c>
-      <c r="C24">
-        <v>61.35</v>
-      </c>
-      <c r="D24">
-        <v>24.67</v>
-      </c>
-      <c r="E24">
-        <v>13.43</v>
-      </c>
-      <c r="F24">
-        <v>70.08</v>
-      </c>
-      <c r="G24">
-        <v>1.78</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="0"/>
-        <v>-56.65</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="1"/>
-        <v>-4.5724642857142853E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>1.5</v>
-      </c>
-      <c r="C25">
-        <v>67.67</v>
-      </c>
-      <c r="D25">
-        <v>26.87</v>
-      </c>
-      <c r="E25">
-        <v>16.11</v>
-      </c>
-      <c r="F25">
-        <v>72.89</v>
-      </c>
-      <c r="G25">
-        <v>1.43</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="0"/>
-        <v>-56.78</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="1"/>
-        <v>-4.5829571428571428E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="C26">
-        <v>70.66</v>
-      </c>
-      <c r="D26">
-        <v>29.36</v>
-      </c>
-      <c r="E26">
-        <v>18.739999999999998</v>
-      </c>
-      <c r="F26">
-        <v>75.58</v>
-      </c>
-      <c r="G26">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="0"/>
-        <v>-56.84</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="1"/>
-        <v>-4.5878000000000002E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>0.77</v>
-      </c>
-      <c r="C27">
-        <v>76.56</v>
-      </c>
-      <c r="D27">
-        <v>31.53</v>
-      </c>
-      <c r="E27">
-        <v>20.74</v>
-      </c>
-      <c r="F27">
-        <v>76.319999999999993</v>
-      </c>
-      <c r="G27">
-        <v>0.71</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="0"/>
-        <v>-55.58</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="1"/>
-        <v>-4.4860999999999998E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>0.39</v>
-      </c>
       <c r="C28">
-        <v>79.400000000000006</v>
+        <v>80.86</v>
       </c>
       <c r="D28">
-        <v>33.28</v>
+        <v>34.79</v>
       </c>
       <c r="E28">
-        <v>22.24</v>
+        <v>23.04</v>
       </c>
       <c r="F28">
-        <v>75.58</v>
+        <v>73.91</v>
       </c>
       <c r="G28">
-        <v>0.35</v>
+        <v>0.01</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>-53.34</v>
+        <v>-50.87</v>
       </c>
       <c r="I28">
         <f t="shared" si="1"/>
-        <v>-4.3053000000000001E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-4.105935714285714E-2</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>3.6609921288669233E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10</v>
+      </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C29">
-        <v>80.86</v>
+        <v>81.13</v>
       </c>
       <c r="D29">
-        <v>34.79</v>
+        <v>35.94</v>
       </c>
       <c r="E29">
-        <v>23.04</v>
+        <v>22.84</v>
       </c>
       <c r="F29">
-        <v>73.91</v>
+        <v>69.73</v>
       </c>
       <c r="G29">
-        <v>0.01</v>
+        <v>0.44</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>-50.87</v>
+        <v>-46.89</v>
       </c>
       <c r="I29">
         <f t="shared" si="1"/>
-        <v>-4.105935714285714E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-3.7846928571428573E-2</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>3.5316969803990822E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>20</v>
+      </c>
       <c r="B30">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="C30">
-        <v>81.13</v>
+        <v>79.53</v>
       </c>
       <c r="D30">
-        <v>35.94</v>
+        <v>36.56</v>
       </c>
       <c r="E30">
-        <v>22.84</v>
+        <v>22.75</v>
       </c>
       <c r="F30">
-        <v>69.73</v>
+        <v>65.489999999999995</v>
       </c>
       <c r="G30">
-        <v>0.44</v>
+        <v>0.82</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>-46.89</v>
+        <v>-42.739999999999995</v>
       </c>
       <c r="I30">
         <f t="shared" si="1"/>
-        <v>-3.7846928571428573E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>0.8</v>
-      </c>
-      <c r="C31">
-        <v>79.53</v>
-      </c>
-      <c r="D31">
-        <v>36.56</v>
-      </c>
-      <c r="E31">
-        <v>22.75</v>
-      </c>
-      <c r="F31">
-        <v>65.489999999999995</v>
-      </c>
-      <c r="G31">
-        <v>0.82</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="0"/>
-        <v>-42.739999999999995</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="1"/>
         <v>-3.449728571428571E-2</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>3.4112229234180458E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Hall-Effekt/Hall-Effekt.xlsx
+++ b/Hall-Effekt/Hall-Effekt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\GitHub\F-Praktikum-\Hall-Effekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FA64C3-D65B-4285-960F-B41CEF084502}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9816A4-B63C-4138-B7A5-171440BADADB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{32BD4F04-B8A9-49AF-B99F-3A48C73325BF}"/>
   </bookViews>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284E11AA-7E4C-41BD-B4F3-E90581CA608F}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,73 +504,72 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>20+25*0.13</f>
-        <v>23.25</v>
+        <v>38</v>
       </c>
       <c r="B4">
-        <v>0.93</v>
+        <v>1.5</v>
       </c>
       <c r="C4">
-        <v>79.98</v>
+        <v>76.02</v>
       </c>
       <c r="D4">
-        <v>35.76</v>
+        <v>33.61</v>
       </c>
       <c r="E4">
-        <v>26.53</v>
+        <v>28.53</v>
       </c>
       <c r="F4">
-        <v>67.97</v>
+        <v>59.54</v>
       </c>
       <c r="G4">
-        <v>0.93</v>
+        <v>1.5</v>
       </c>
       <c r="H4">
         <f>E4-F4</f>
-        <v>-41.44</v>
+        <v>-31.009999999999998</v>
       </c>
       <c r="I4">
         <f>0.565*10^(-3)*H4/$K$1</f>
-        <v>-3.3447999999999999E-2</v>
+        <v>-2.50295E-2</v>
       </c>
       <c r="J4">
         <f>1/(A4+273.15)</f>
-        <v>3.3738191632928477E-3</v>
+        <v>3.2138839787883662E-3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="C5">
-        <v>79.819999999999993</v>
+        <v>77.38</v>
       </c>
       <c r="D5">
-        <v>35.68</v>
+        <v>34.119999999999997</v>
       </c>
       <c r="E5">
-        <v>26.71</v>
+        <v>28.21</v>
       </c>
       <c r="F5">
-        <v>67.150000000000006</v>
+        <v>61.25</v>
       </c>
       <c r="G5">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H30" si="0">E5-F5</f>
-        <v>-40.440000000000005</v>
+        <f>E5-F5</f>
+        <v>-33.04</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I30" si="1">0.565*10^(-3)*H5/$K$1</f>
-        <v>-3.2640857142857145E-2</v>
+        <f>0.565*10^(-3)*H5/$K$1</f>
+        <v>-2.6668000000000001E-2</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J30" si="2">1/(A5+273.15)</f>
-        <v>3.3540164346805303E-3</v>
+        <f>1/(A5+273.15)</f>
+        <v>3.2451728054518907E-3</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -596,838 +595,828 @@
         <v>1.21</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f>E6-F6</f>
         <v>-37.450000000000003</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f>0.565*10^(-3)*H6/$K$1</f>
         <v>-3.0227500000000004E-2</v>
       </c>
       <c r="J6">
-        <f t="shared" si="2"/>
+        <f>1/(A6+273.15)</f>
         <v>3.298697014679202E-3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B7">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>77.38</v>
+        <v>79.819999999999993</v>
       </c>
       <c r="D7">
-        <v>34.119999999999997</v>
+        <v>35.68</v>
       </c>
       <c r="E7">
-        <v>28.21</v>
+        <v>26.71</v>
       </c>
       <c r="F7">
-        <v>61.25</v>
+        <v>67.150000000000006</v>
       </c>
       <c r="G7">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>-33.04</v>
+        <f>E7-F7</f>
+        <v>-40.440000000000005</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
-        <v>-2.6668000000000001E-2</v>
+        <f>0.565*10^(-3)*H7/$K$1</f>
+        <v>-3.2640857142857145E-2</v>
       </c>
       <c r="J7">
-        <f t="shared" si="2"/>
-        <v>3.2451728054518907E-3</v>
+        <f>1/(A7+273.15)</f>
+        <v>3.3540164346805303E-3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>38</v>
+        <f>20+25*0.13</f>
+        <v>23.25</v>
       </c>
       <c r="B8">
-        <v>1.5</v>
+        <v>0.93</v>
       </c>
       <c r="C8">
-        <v>76.02</v>
+        <v>79.98</v>
       </c>
       <c r="D8">
-        <v>33.61</v>
+        <v>35.76</v>
       </c>
       <c r="E8">
-        <v>28.53</v>
+        <v>26.53</v>
       </c>
       <c r="F8">
-        <v>59.54</v>
+        <v>67.97</v>
       </c>
       <c r="G8">
-        <v>1.5</v>
+        <v>0.93</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
-        <v>-31.009999999999998</v>
+        <f>E8-F8</f>
+        <v>-41.44</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
-        <v>-2.50295E-2</v>
+        <f>0.565*10^(-3)*H8/$K$1</f>
+        <v>-3.3447999999999999E-2</v>
       </c>
       <c r="J8">
-        <f t="shared" si="2"/>
-        <v>3.2138839787883662E-3</v>
+        <f>1/(A8+273.15)</f>
+        <v>3.3738191632928477E-3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>0.8</v>
+      </c>
+      <c r="C9">
+        <v>79.53</v>
+      </c>
+      <c r="D9">
+        <v>36.56</v>
+      </c>
+      <c r="E9">
+        <v>22.75</v>
+      </c>
+      <c r="F9">
+        <v>65.489999999999995</v>
+      </c>
+      <c r="G9">
+        <v>0.82</v>
+      </c>
       <c r="H9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E9-F9</f>
+        <v>-42.739999999999995</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>0.565*10^(-3)*H9/$K$1</f>
+        <v>-3.449728571428571E-2</v>
       </c>
       <c r="J9">
-        <f t="shared" si="2"/>
-        <v>3.6609921288669233E-3</v>
+        <f>1/(A9+273.15)</f>
+        <v>3.4112229234180458E-3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>-180</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>5.3</v>
+        <v>0.4</v>
       </c>
       <c r="C10">
-        <v>16.07</v>
+        <v>81.13</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>35.94</v>
       </c>
       <c r="E10">
-        <v>-11.95</v>
+        <v>22.84</v>
       </c>
       <c r="F10">
-        <v>38.28</v>
+        <v>69.73</v>
       </c>
       <c r="G10">
-        <v>5.15</v>
+        <v>0.44</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
-        <v>-50.230000000000004</v>
+        <f>E10-F10</f>
+        <v>-46.89</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
-        <v>-4.0542785714285719E-2</v>
+        <f>0.565*10^(-3)*H10/$K$1</f>
+        <v>-3.7846928571428573E-2</v>
       </c>
       <c r="J10">
-        <f t="shared" si="2"/>
-        <v>1.0735373054213636E-2</v>
+        <f>1/(A10+273.15)</f>
+        <v>3.5316969803990822E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>-170</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>5.12</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>16.899999999999999</v>
+        <v>80.86</v>
       </c>
       <c r="D11">
-        <v>6.41</v>
+        <v>34.79</v>
       </c>
       <c r="E11">
-        <v>-10.15</v>
+        <v>23.04</v>
       </c>
       <c r="F11">
-        <v>37.5</v>
+        <v>73.91</v>
       </c>
       <c r="G11">
-        <v>4.95</v>
+        <v>0.01</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
-        <v>-47.65</v>
+        <f>E11-F11</f>
+        <v>-50.87</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
-        <v>-3.8460357142857143E-2</v>
+        <f>0.565*10^(-3)*H11/$K$1</f>
+        <v>-4.105935714285714E-2</v>
       </c>
       <c r="J11">
-        <f t="shared" si="2"/>
-        <v>9.6946194861851701E-3</v>
+        <f>1/(A11+273.15)</f>
+        <v>3.6609921288669233E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>-160</v>
+        <v>-10</v>
       </c>
       <c r="B12">
-        <v>4.91</v>
+        <v>0.39</v>
       </c>
       <c r="C12">
-        <v>18.13</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="D12">
-        <v>6.96</v>
+        <v>33.28</v>
       </c>
       <c r="E12">
-        <v>-8.65</v>
+        <v>22.24</v>
       </c>
       <c r="F12">
-        <v>38.33</v>
+        <v>75.58</v>
       </c>
       <c r="G12">
-        <v>4.78</v>
+        <v>0.35</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
-        <v>-46.98</v>
+        <f>E12-F12</f>
+        <v>-53.34</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
-        <v>-3.7919571428571427E-2</v>
+        <f>0.565*10^(-3)*H12/$K$1</f>
+        <v>-4.3053000000000001E-2</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
-        <v>8.8378258948298739E-3</v>
+        <f>1/(A12+273.15)</f>
+        <v>3.800114003420103E-3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>-150</v>
+        <v>-20</v>
       </c>
       <c r="B13">
-        <v>4.6900000000000004</v>
+        <v>0.77</v>
       </c>
       <c r="C13">
-        <v>20.350000000000001</v>
+        <v>76.56</v>
       </c>
       <c r="D13">
-        <v>7.9</v>
+        <v>31.53</v>
       </c>
       <c r="E13">
-        <v>-7.3</v>
+        <v>20.74</v>
       </c>
       <c r="F13">
-        <v>40.130000000000003</v>
+        <v>76.319999999999993</v>
       </c>
       <c r="G13">
-        <v>4.55</v>
+        <v>0.71</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
-        <v>-47.43</v>
+        <f>E13-F13</f>
+        <v>-55.58</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
-        <v>-3.8282785714285714E-2</v>
+        <f>0.565*10^(-3)*H13/$K$1</f>
+        <v>-4.4860999999999998E-2</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
-        <v>8.1201786439301683E-3</v>
+        <f>1/(A13+273.15)</f>
+        <v>3.9502271380604387E-3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>-140</v>
+        <v>-30</v>
       </c>
       <c r="B14">
-        <v>4.46</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="C14">
-        <v>22.95</v>
+        <v>70.66</v>
       </c>
       <c r="D14">
-        <v>8.9499999999999993</v>
+        <v>29.36</v>
       </c>
       <c r="E14">
-        <v>-5.81</v>
+        <v>18.739999999999998</v>
       </c>
       <c r="F14">
-        <v>41.96</v>
+        <v>75.58</v>
       </c>
       <c r="G14">
-        <v>4.3499999999999996</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
-        <v>-47.77</v>
+        <f>E14-F14</f>
+        <v>-56.84</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
-        <v>-3.8557214285714292E-2</v>
+        <f>0.565*10^(-3)*H14/$K$1</f>
+        <v>-4.5878000000000002E-2</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
-        <v>7.5103266992114174E-3</v>
+        <f>1/(A14+273.15)</f>
+        <v>4.1126876413736376E-3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>-130</v>
+        <v>-40</v>
       </c>
       <c r="B15">
-        <v>4.21</v>
+        <v>1.5</v>
       </c>
       <c r="C15">
-        <v>25.84</v>
+        <v>67.67</v>
       </c>
       <c r="D15">
-        <v>10.15</v>
+        <v>26.87</v>
       </c>
       <c r="E15">
-        <v>-4.2300000000000004</v>
+        <v>16.11</v>
       </c>
       <c r="F15">
-        <v>44.39</v>
+        <v>72.89</v>
       </c>
       <c r="G15">
-        <v>4.07</v>
+        <v>1.43</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
-        <v>-48.620000000000005</v>
+        <f>E15-F15</f>
+        <v>-56.78</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
-        <v>-3.9243285714285717E-2</v>
+        <f>0.565*10^(-3)*H15/$K$1</f>
+        <v>-4.5829571428571428E-2</v>
       </c>
       <c r="J15">
-        <f t="shared" si="2"/>
-        <v>6.9856793573175001E-3</v>
+        <f>1/(A15+273.15)</f>
+        <v>4.2890842805061126E-3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>-120</v>
+        <v>-50</v>
       </c>
       <c r="B16">
-        <v>3.95</v>
+        <v>1.85</v>
       </c>
       <c r="C16">
-        <v>29.41</v>
+        <v>61.35</v>
       </c>
       <c r="D16">
-        <v>11.55</v>
+        <v>24.67</v>
       </c>
       <c r="E16">
-        <v>-2.4900000000000002</v>
+        <v>13.43</v>
       </c>
       <c r="F16">
-        <v>47.21</v>
+        <v>70.08</v>
       </c>
       <c r="G16">
-        <v>3.82</v>
+        <v>1.78</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
-        <v>-49.7</v>
+        <f>E16-F16</f>
+        <v>-56.65</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
-        <v>-4.0115000000000005E-2</v>
+        <f>0.565*10^(-3)*H16/$K$1</f>
+        <v>-4.5724642857142853E-2</v>
       </c>
       <c r="J16">
-        <f t="shared" si="2"/>
-        <v>6.5295461965393419E-3</v>
+        <f>1/(A16+273.15)</f>
+        <v>4.4812906116961692E-3</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>-110</v>
+        <v>-60</v>
       </c>
       <c r="B17">
-        <v>3.68</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="C17">
-        <v>33.04</v>
+        <v>57.53</v>
       </c>
       <c r="D17">
-        <v>13.03</v>
+        <v>22.71</v>
       </c>
       <c r="E17">
-        <v>-0.65</v>
+        <v>10.86</v>
       </c>
       <c r="F17">
-        <v>49.73</v>
+        <v>67.38</v>
       </c>
       <c r="G17">
-        <v>3.58</v>
+        <v>2.09</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
-        <v>-50.379999999999995</v>
+        <f>E17-F17</f>
+        <v>-56.519999999999996</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
-        <v>-4.066385714285714E-2</v>
+        <f>0.565*10^(-3)*H17/$K$1</f>
+        <v>-4.5619714285714284E-2</v>
       </c>
       <c r="J17">
-        <f t="shared" si="2"/>
-        <v>6.1293288384921861E-3</v>
+        <f>1/(A17+273.15)</f>
+        <v>4.6915317851278443E-3</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>-100</v>
+        <v>-70</v>
       </c>
       <c r="B18">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="C18">
-        <v>37.200000000000003</v>
+        <v>51.54</v>
       </c>
       <c r="D18">
-        <v>14.73</v>
+        <v>20.61</v>
       </c>
       <c r="E18">
-        <v>1.25</v>
+        <v>8.15</v>
       </c>
       <c r="F18">
-        <v>53.66</v>
+        <v>63.92</v>
       </c>
       <c r="G18">
-        <v>3.27</v>
+        <v>2.4</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
-        <v>-52.41</v>
+        <f>E18-F18</f>
+        <v>-55.77</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
-        <v>-4.2302357142857142E-2</v>
+        <f>0.565*10^(-3)*H18/$K$1</f>
+        <v>-4.5014357142857141E-2</v>
       </c>
       <c r="J18">
-        <f t="shared" si="2"/>
-        <v>5.775339301183945E-3</v>
+        <f>1/(A18+273.15)</f>
+        <v>4.9224710804824023E-3</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>-90</v>
+        <v>-80</v>
       </c>
       <c r="B19">
-        <v>3.11</v>
+        <v>2.81</v>
       </c>
       <c r="C19">
-        <v>41.67</v>
+        <v>47.45</v>
       </c>
       <c r="D19">
-        <v>16.55</v>
+        <v>18.75</v>
       </c>
       <c r="E19">
-        <v>3.35</v>
+        <v>5.76</v>
       </c>
       <c r="F19">
-        <v>56.5</v>
+        <v>61.01</v>
       </c>
       <c r="G19">
-        <v>2.99</v>
+        <v>2.71</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
-        <v>-53.15</v>
+        <f>E19-F19</f>
+        <v>-55.25</v>
       </c>
       <c r="I19">
-        <f t="shared" si="1"/>
-        <v>-4.2899642857142858E-2</v>
+        <f>0.565*10^(-3)*H19/$K$1</f>
+        <v>-4.4594642857142854E-2</v>
       </c>
       <c r="J19">
-        <f t="shared" si="2"/>
-        <v>5.4600054600054604E-3</v>
+        <f>1/(A19+273.15)</f>
+        <v>5.1773233238415744E-3</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>-80</v>
+        <v>-90</v>
       </c>
       <c r="B20">
-        <v>2.81</v>
+        <v>3.11</v>
       </c>
       <c r="C20">
-        <v>47.45</v>
+        <v>41.67</v>
       </c>
       <c r="D20">
-        <v>18.75</v>
+        <v>16.55</v>
       </c>
       <c r="E20">
-        <v>5.76</v>
+        <v>3.35</v>
       </c>
       <c r="F20">
-        <v>61.01</v>
+        <v>56.5</v>
       </c>
       <c r="G20">
-        <v>2.71</v>
+        <v>2.99</v>
       </c>
       <c r="H20">
-        <f t="shared" si="0"/>
-        <v>-55.25</v>
+        <f>E20-F20</f>
+        <v>-53.15</v>
       </c>
       <c r="I20">
-        <f t="shared" si="1"/>
-        <v>-4.4594642857142854E-2</v>
+        <f>0.565*10^(-3)*H20/$K$1</f>
+        <v>-4.2899642857142858E-2</v>
       </c>
       <c r="J20">
-        <f t="shared" si="2"/>
-        <v>5.1773233238415744E-3</v>
+        <f>1/(A20+273.15)</f>
+        <v>5.4600054600054604E-3</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>-70</v>
+        <v>-100</v>
       </c>
       <c r="B21">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="C21">
-        <v>51.54</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="D21">
-        <v>20.61</v>
+        <v>14.73</v>
       </c>
       <c r="E21">
-        <v>8.15</v>
+        <v>1.25</v>
       </c>
       <c r="F21">
-        <v>63.92</v>
+        <v>53.66</v>
       </c>
       <c r="G21">
-        <v>2.4</v>
+        <v>3.27</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
-        <v>-55.77</v>
+        <f>E21-F21</f>
+        <v>-52.41</v>
       </c>
       <c r="I21">
-        <f t="shared" si="1"/>
-        <v>-4.5014357142857141E-2</v>
+        <f>0.565*10^(-3)*H21/$K$1</f>
+        <v>-4.2302357142857142E-2</v>
       </c>
       <c r="J21">
-        <f t="shared" si="2"/>
-        <v>4.9224710804824023E-3</v>
+        <f>1/(A21+273.15)</f>
+        <v>5.775339301183945E-3</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>-60</v>
+        <v>-110</v>
       </c>
       <c r="B22">
-        <v>2.1800000000000002</v>
+        <v>3.68</v>
       </c>
       <c r="C22">
-        <v>57.53</v>
+        <v>33.04</v>
       </c>
       <c r="D22">
-        <v>22.71</v>
+        <v>13.03</v>
       </c>
       <c r="E22">
-        <v>10.86</v>
+        <v>-0.65</v>
       </c>
       <c r="F22">
-        <v>67.38</v>
+        <v>49.73</v>
       </c>
       <c r="G22">
-        <v>2.09</v>
+        <v>3.58</v>
       </c>
       <c r="H22">
-        <f t="shared" si="0"/>
-        <v>-56.519999999999996</v>
+        <f>E22-F22</f>
+        <v>-50.379999999999995</v>
       </c>
       <c r="I22">
-        <f t="shared" si="1"/>
-        <v>-4.5619714285714284E-2</v>
+        <f>0.565*10^(-3)*H22/$K$1</f>
+        <v>-4.066385714285714E-2</v>
       </c>
       <c r="J22">
-        <f t="shared" si="2"/>
-        <v>4.6915317851278443E-3</v>
+        <f>1/(A22+273.15)</f>
+        <v>6.1293288384921861E-3</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>-50</v>
+        <v>-120</v>
       </c>
       <c r="B23">
-        <v>1.85</v>
+        <v>3.95</v>
       </c>
       <c r="C23">
-        <v>61.35</v>
+        <v>29.41</v>
       </c>
       <c r="D23">
-        <v>24.67</v>
+        <v>11.55</v>
       </c>
       <c r="E23">
-        <v>13.43</v>
+        <v>-2.4900000000000002</v>
       </c>
       <c r="F23">
-        <v>70.08</v>
+        <v>47.21</v>
       </c>
       <c r="G23">
-        <v>1.78</v>
+        <v>3.82</v>
       </c>
       <c r="H23">
-        <f t="shared" si="0"/>
-        <v>-56.65</v>
+        <f>E23-F23</f>
+        <v>-49.7</v>
       </c>
       <c r="I23">
-        <f t="shared" si="1"/>
-        <v>-4.5724642857142853E-2</v>
+        <f>0.565*10^(-3)*H23/$K$1</f>
+        <v>-4.0115000000000005E-2</v>
       </c>
       <c r="J23">
-        <f t="shared" si="2"/>
-        <v>4.4812906116961692E-3</v>
+        <f>1/(A23+273.15)</f>
+        <v>6.5295461965393419E-3</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>-40</v>
+        <v>-130</v>
       </c>
       <c r="B24">
-        <v>1.5</v>
+        <v>4.21</v>
       </c>
       <c r="C24">
-        <v>67.67</v>
+        <v>25.84</v>
       </c>
       <c r="D24">
-        <v>26.87</v>
+        <v>10.15</v>
       </c>
       <c r="E24">
-        <v>16.11</v>
+        <v>-4.2300000000000004</v>
       </c>
       <c r="F24">
-        <v>72.89</v>
+        <v>44.39</v>
       </c>
       <c r="G24">
-        <v>1.43</v>
+        <v>4.07</v>
       </c>
       <c r="H24">
-        <f t="shared" si="0"/>
-        <v>-56.78</v>
+        <f>E24-F24</f>
+        <v>-48.620000000000005</v>
       </c>
       <c r="I24">
-        <f t="shared" si="1"/>
-        <v>-4.5829571428571428E-2</v>
+        <f>0.565*10^(-3)*H24/$K$1</f>
+        <v>-3.9243285714285717E-2</v>
       </c>
       <c r="J24">
-        <f t="shared" si="2"/>
-        <v>4.2890842805061126E-3</v>
+        <f>1/(A24+273.15)</f>
+        <v>6.9856793573175001E-3</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>-30</v>
+        <v>-140</v>
       </c>
       <c r="B25">
-        <v>1.1399999999999999</v>
+        <v>4.46</v>
       </c>
       <c r="C25">
-        <v>70.66</v>
+        <v>22.95</v>
       </c>
       <c r="D25">
-        <v>29.36</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="E25">
-        <v>18.739999999999998</v>
+        <v>-5.81</v>
       </c>
       <c r="F25">
-        <v>75.58</v>
+        <v>41.96</v>
       </c>
       <c r="G25">
-        <v>1.0900000000000001</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="H25">
-        <f t="shared" si="0"/>
-        <v>-56.84</v>
+        <f>E25-F25</f>
+        <v>-47.77</v>
       </c>
       <c r="I25">
-        <f t="shared" si="1"/>
-        <v>-4.5878000000000002E-2</v>
+        <f>0.565*10^(-3)*H25/$K$1</f>
+        <v>-3.8557214285714292E-2</v>
       </c>
       <c r="J25">
-        <f t="shared" si="2"/>
-        <v>4.1126876413736376E-3</v>
+        <f>1/(A25+273.15)</f>
+        <v>7.5103266992114174E-3</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>-20</v>
+        <v>-150</v>
       </c>
       <c r="B26">
-        <v>0.77</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="C26">
-        <v>76.56</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="D26">
-        <v>31.53</v>
+        <v>7.9</v>
       </c>
       <c r="E26">
-        <v>20.74</v>
+        <v>-7.3</v>
       </c>
       <c r="F26">
-        <v>76.319999999999993</v>
+        <v>40.130000000000003</v>
       </c>
       <c r="G26">
-        <v>0.71</v>
+        <v>4.55</v>
       </c>
       <c r="H26">
-        <f t="shared" si="0"/>
-        <v>-55.58</v>
+        <f>E26-F26</f>
+        <v>-47.43</v>
       </c>
       <c r="I26">
-        <f t="shared" si="1"/>
-        <v>-4.4860999999999998E-2</v>
+        <f>0.565*10^(-3)*H26/$K$1</f>
+        <v>-3.8282785714285714E-2</v>
       </c>
       <c r="J26">
-        <f t="shared" si="2"/>
-        <v>3.9502271380604387E-3</v>
+        <f>1/(A26+273.15)</f>
+        <v>8.1201786439301683E-3</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>-10</v>
+        <v>-160</v>
       </c>
       <c r="B27">
-        <v>0.39</v>
+        <v>4.91</v>
       </c>
       <c r="C27">
-        <v>79.400000000000006</v>
+        <v>18.13</v>
       </c>
       <c r="D27">
-        <v>33.28</v>
+        <v>6.96</v>
       </c>
       <c r="E27">
-        <v>22.24</v>
+        <v>-8.65</v>
       </c>
       <c r="F27">
-        <v>75.58</v>
+        <v>38.33</v>
       </c>
       <c r="G27">
-        <v>0.35</v>
+        <v>4.78</v>
       </c>
       <c r="H27">
-        <f t="shared" si="0"/>
-        <v>-53.34</v>
+        <f>E27-F27</f>
+        <v>-46.98</v>
       </c>
       <c r="I27">
-        <f t="shared" si="1"/>
-        <v>-4.3053000000000001E-2</v>
+        <f>0.565*10^(-3)*H27/$K$1</f>
+        <v>-3.7919571428571427E-2</v>
       </c>
       <c r="J27">
-        <f t="shared" si="2"/>
-        <v>3.800114003420103E-3</v>
+        <f>1/(A27+273.15)</f>
+        <v>8.8378258948298739E-3</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0</v>
+        <v>-170</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>5.12</v>
       </c>
       <c r="C28">
-        <v>80.86</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D28">
-        <v>34.79</v>
+        <v>6.41</v>
       </c>
       <c r="E28">
-        <v>23.04</v>
+        <v>-10.15</v>
       </c>
       <c r="F28">
-        <v>73.91</v>
+        <v>37.5</v>
       </c>
       <c r="G28">
-        <v>0.01</v>
+        <v>4.95</v>
       </c>
       <c r="H28">
-        <f t="shared" si="0"/>
-        <v>-50.87</v>
+        <f>E28-F28</f>
+        <v>-47.65</v>
       </c>
       <c r="I28">
-        <f t="shared" si="1"/>
-        <v>-4.105935714285714E-2</v>
+        <f>0.565*10^(-3)*H28/$K$1</f>
+        <v>-3.8460357142857143E-2</v>
       </c>
       <c r="J28">
-        <f t="shared" si="2"/>
-        <v>3.6609921288669233E-3</v>
+        <f>1/(A28+273.15)</f>
+        <v>9.6946194861851701E-3</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>10</v>
+        <v>-180</v>
       </c>
       <c r="B29">
-        <v>0.4</v>
+        <v>5.3</v>
       </c>
       <c r="C29">
-        <v>81.13</v>
+        <v>16.07</v>
       </c>
       <c r="D29">
-        <v>35.94</v>
+        <v>6</v>
       </c>
       <c r="E29">
-        <v>22.84</v>
+        <v>-11.95</v>
       </c>
       <c r="F29">
-        <v>69.73</v>
+        <v>38.28</v>
       </c>
       <c r="G29">
-        <v>0.44</v>
+        <v>5.15</v>
       </c>
       <c r="H29">
-        <f t="shared" si="0"/>
-        <v>-46.89</v>
+        <f>E29-F29</f>
+        <v>-50.230000000000004</v>
       </c>
       <c r="I29">
-        <f t="shared" si="1"/>
-        <v>-3.7846928571428573E-2</v>
+        <f>0.565*10^(-3)*H29/$K$1</f>
+        <v>-4.0542785714285719E-2</v>
       </c>
       <c r="J29">
-        <f t="shared" si="2"/>
-        <v>3.5316969803990822E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>20</v>
-      </c>
-      <c r="B30">
-        <v>0.8</v>
-      </c>
-      <c r="C30">
-        <v>79.53</v>
-      </c>
-      <c r="D30">
-        <v>36.56</v>
-      </c>
-      <c r="E30">
-        <v>22.75</v>
-      </c>
-      <c r="F30">
-        <v>65.489999999999995</v>
-      </c>
-      <c r="G30">
-        <v>0.82</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="0"/>
-        <v>-42.739999999999995</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="1"/>
-        <v>-3.449728571428571E-2</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="2"/>
-        <v>3.4112229234180458E-3</v>
+        <f>1/(A29+273.15)</f>
+        <v>1.0735373054213636E-2</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A4:J29">
+    <sortCondition ref="J4:J29"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>